--- a/FAIR_output_data/Experiment 4/Experiment 4 - bird dispersal - fast birds.xlsx
+++ b/FAIR_output_data/Experiment 4/Experiment 4 - bird dispersal - fast birds.xlsx
@@ -8,19 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Development\DBR-sim\FAIR_output_data\Experiment 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE11463-CAFA-43DF-BF13-1D9223A5CD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECADA96-B769-47DA-AAE6-C97A492798EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="6" xr2:uid="{EF2A2C3D-8059-4464-A956-197CB61270C0}"/>
+    <workbookView xWindow="28680" yWindow="1620" windowWidth="29040" windowHeight="15720" xr2:uid="{EF2A2C3D-8059-4464-A956-197CB61270C0}"/>
   </bookViews>
   <sheets>
-    <sheet name="t 1" sheetId="2" r:id="rId1"/>
-    <sheet name="t 2" sheetId="3" r:id="rId2"/>
-    <sheet name="t 3" sheetId="4" r:id="rId3"/>
-    <sheet name="t 4" sheetId="5" r:id="rId4"/>
-    <sheet name="t 5" sheetId="6" r:id="rId5"/>
-    <sheet name="t test slow birds vs wind 500m" sheetId="7" r:id="rId6"/>
-    <sheet name="Raw data" sheetId="1" r:id="rId7"/>
-    <sheet name="Summary stats wind &amp; slowbirds" sheetId="8" r:id="rId8"/>
+    <sheet name="Raw data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="7">
   <si>
     <r>
       <t>9 x 10</t>
@@ -217,57 +210,6 @@
     </r>
   </si>
   <si>
-    <t>T-toets: twee steekproeven met ongelijke varianties</t>
-  </si>
-  <si>
-    <t>Variabele 1</t>
-  </si>
-  <si>
-    <t>Variabele 2</t>
-  </si>
-  <si>
-    <t>Gemiddelde</t>
-  </si>
-  <si>
-    <t>Variantie</t>
-  </si>
-  <si>
-    <t>Waarnemingen</t>
-  </si>
-  <si>
-    <t>Schatting van verschil tussen gemiddelden</t>
-  </si>
-  <si>
-    <t>Vrijheidsgraden</t>
-  </si>
-  <si>
-    <t>T- statistische gegevens</t>
-  </si>
-  <si>
-    <t>P(T&lt;=t) eenzijdig</t>
-  </si>
-  <si>
-    <t>Kritiek gebied van T-toets: eenzijdig</t>
-  </si>
-  <si>
-    <t>P(T&lt;=t) tweezijdig</t>
-  </si>
-  <si>
-    <t>Kritiek gebied van T-toets: tweezijdig</t>
-  </si>
-  <si>
-    <t>3 m/s birds:</t>
-  </si>
-  <si>
-    <t>wind:</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>stdev</t>
-  </si>
-  <si>
     <r>
       <t>Spatial pattern type (uniform or perlin noise. If perlin noise: patch area is given in m</t>
     </r>
@@ -316,10 +258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0E+00"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,14 +274,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -371,7 +302,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -379,46 +310,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -754,838 +655,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B41672-4BB2-4B1D-B6B8-F5018228F5FB}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
-        <v>267282.32</v>
-      </c>
-      <c r="C4" s="5">
-        <v>340079.08</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2427174.017959184</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1716420.4424489795</v>
-      </c>
-      <c r="F5">
-        <f>SQRT(B5)</f>
-        <v>1557.9390289607563</v>
-      </c>
-      <c r="G5">
-        <f>SQRT(C5)</f>
-        <v>1310.1223005692939</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5">
-        <v>50</v>
-      </c>
-      <c r="C6" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5">
-        <v>95</v>
-      </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5">
-        <v>-252.87647598384552</v>
-      </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1.762655433718801E-136</v>
-      </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1.6610518172772404</v>
-      </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5">
-        <v>3.5253108674376021E-136</v>
-      </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1.9852510035054973</v>
-      </c>
-      <c r="C13" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE9A3E5-C229-44E4-8A5F-9BBC8CBB0516}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
-        <v>278542.48</v>
-      </c>
-      <c r="C4" s="5">
-        <v>331673.18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1344274.9485714284</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1612767.8240816323</v>
-      </c>
-      <c r="F5">
-        <f>SQRT(B5)</f>
-        <v>1159.4287164683426</v>
-      </c>
-      <c r="G5">
-        <f>SQRT(C5)</f>
-        <v>1269.9479611707056</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5">
-        <v>50</v>
-      </c>
-      <c r="C6" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5">
-        <v>97</v>
-      </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5">
-        <v>-218.47499431609728</v>
-      </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1.0012347938297921E-132</v>
-      </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1.6607146101230255</v>
-      </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2.0024695876595843E-132</v>
-      </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1.9847231860139838</v>
-      </c>
-      <c r="C13" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687BC31C-9798-49AF-BA6F-8FF893C92C65}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
-        <v>265246.87755102041</v>
-      </c>
-      <c r="C4" s="5">
-        <v>314414.81632653059</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5">
-        <v>5799762.3180272123</v>
-      </c>
-      <c r="C5" s="5">
-        <v>3648059.9863945576</v>
-      </c>
-      <c r="F5">
-        <f>SQRT(B5)</f>
-        <v>2408.269569219196</v>
-      </c>
-      <c r="G5">
-        <f>SQRT(C5)</f>
-        <v>1909.9895252054546</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5">
-        <v>49</v>
-      </c>
-      <c r="C6" s="5">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5">
-        <v>91</v>
-      </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5">
-        <v>-111.97322427565209</v>
-      </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1.3990190822273966E-99</v>
-      </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1.6617711550616978</v>
-      </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2.7980381644547933E-99</v>
-      </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1.9863771544186202</v>
-      </c>
-      <c r="C13" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0544C117-FD08-4471-A01E-86DB1ACBF837}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
-        <v>243734.14</v>
-      </c>
-      <c r="C4" s="5">
-        <v>301611.21999999997</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5">
-        <v>49215554.612653069</v>
-      </c>
-      <c r="C5" s="5">
-        <v>8137788.2159183659</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="F5">
-        <f>SQRT(B5)</f>
-        <v>7015.3798623205766</v>
-      </c>
-      <c r="G5">
-        <f>SQRT(C5)</f>
-        <v>2852.6808822436424</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5">
-        <v>50</v>
-      </c>
-      <c r="C6" s="5">
-        <v>50</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5">
-        <v>65</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5">
-        <v>-54.039615013198571</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5">
-        <v>4.7872767091206294E-56</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1.6686359758475535</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5">
-        <v>9.5745534182412587E-56</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1.9971379083920051</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E6EAA1-E1C4-45A6-83B9-C6C7D49981E1}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
-        <v>164538.18</v>
-      </c>
-      <c r="C4" s="5">
-        <v>274967.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1435191773.2118344</v>
-      </c>
-      <c r="C5" s="5">
-        <v>79474108.734693885</v>
-      </c>
-      <c r="F5">
-        <f>SQRT(B5)</f>
-        <v>37883.924997442315</v>
-      </c>
-      <c r="G5">
-        <f>SQRT(C5)</f>
-        <v>8914.8252217692916</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5">
-        <v>50</v>
-      </c>
-      <c r="C6" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5">
-        <v>54</v>
-      </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5">
-        <v>-20.063643326592342</v>
-      </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5">
-        <v>5.3389300678579084E-27</v>
-      </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1.6735649063521589</v>
-      </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1.0677860135715817E-26</v>
-      </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="6">
-        <v>2.0048792881880577</v>
-      </c>
-      <c r="C13" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123E0656-CED2-4C09-9F15-86189C1CC390}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="41.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>205777.78</v>
-      </c>
-      <c r="C4">
-        <v>274967.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>2004169396.6240833</v>
-      </c>
-      <c r="C5">
-        <v>79474108.734693885</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>50</v>
-      </c>
-      <c r="C6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>-10.717981025152701</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>3.5213088588490214E-15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>1.6741162367030993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>7.0426177176980428E-15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2.0057459953178696</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BAC184-DE97-4ABD-82ED-82495AE2559C}">
   <dimension ref="A1:F763"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,18 +670,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>264868</v>
@@ -1615,7 +689,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>268398</v>
@@ -1623,7 +697,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>269288</v>
@@ -1631,7 +705,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>269459</v>
@@ -1639,7 +713,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>266581</v>
@@ -1647,7 +721,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>267457</v>
@@ -1655,7 +729,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>267621</v>
@@ -1663,7 +737,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>268293</v>
@@ -1671,7 +745,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>267790</v>
@@ -1679,7 +753,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>265455</v>
@@ -1687,7 +761,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>266477</v>
@@ -1695,7 +769,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>267902</v>
@@ -1703,7 +777,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>264124</v>
@@ -1711,7 +785,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>268002</v>
@@ -1719,7 +793,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>268319</v>
@@ -1727,7 +801,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>265931</v>
@@ -1735,7 +809,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>271388</v>
@@ -1743,7 +817,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>267790</v>
@@ -1751,7 +825,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>265744</v>
@@ -1759,7 +833,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>266912</v>
@@ -1767,7 +841,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>267705</v>
@@ -1775,7 +849,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B23">
         <v>269520</v>
@@ -1783,7 +857,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>268556</v>
@@ -1791,7 +865,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>267825</v>
@@ -1799,7 +873,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B26">
         <v>267524</v>
@@ -1807,7 +881,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B27">
         <v>266053</v>
@@ -1815,7 +889,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B28">
         <v>269072</v>
@@ -1823,7 +897,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B29">
         <v>266546</v>
@@ -1831,7 +905,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B30">
         <v>267545</v>
@@ -1839,7 +913,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B31">
         <v>268796</v>
@@ -1847,7 +921,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B32">
         <v>266397</v>
@@ -1855,7 +929,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B33">
         <v>266100</v>
@@ -1863,7 +937,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B34">
         <v>266179</v>
@@ -1871,7 +945,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>268276</v>
@@ -1879,7 +953,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B36">
         <v>263518</v>
@@ -1887,7 +961,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B37">
         <v>267448</v>
@@ -1895,7 +969,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B38">
         <v>268905</v>
@@ -1903,7 +977,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B39">
         <v>264951</v>
@@ -1911,7 +985,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B40">
         <v>267808</v>
@@ -1919,7 +993,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B41">
         <v>266625</v>
@@ -1927,7 +1001,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B42">
         <v>265988</v>
@@ -1935,7 +1009,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B43">
         <v>267601</v>
@@ -1943,7 +1017,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B44">
         <v>266310</v>
@@ -1951,7 +1025,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B45">
         <v>267083</v>
@@ -1959,7 +1033,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B46">
         <v>267639</v>
@@ -1967,7 +1041,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B47">
         <v>267329</v>
@@ -1975,7 +1049,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B48">
         <v>264036</v>
@@ -1983,7 +1057,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B49">
         <v>266879</v>
@@ -1991,7 +1065,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B50">
         <v>268101</v>
@@ -1999,7 +1073,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B51">
         <v>270002</v>
@@ -4895,56 +3969,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCF2AB2-D85B-4701-AD06-6C15586B0EB6}">
-  <dimension ref="B1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="8" t="e">
-        <f>AVERAGE('Raw data'!C201:C250)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D2" s="8" t="e">
-        <f>_xlfn.STDEV.S('Raw data'!C201:C250)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="8" t="e">
-        <f>AVERAGE('Raw data'!D201:D250)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D3" s="8" t="e">
-        <f>_xlfn.STDEV.S('Raw data'!D201:D250)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>